--- a/biology/Botanique/Véronique_germandrée/Véronique_germandrée.xlsx
+++ b/biology/Botanique/Véronique_germandrée/Véronique_germandrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_germandr%C3%A9e</t>
+          <t>Véronique_germandrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica austriaca subsp. teucrium
 La Véronique germandrée (Veronica austriaca subsp. teucrium) est une sous-espèce de Veronica austriaca. Elle fait partie du genre Veronica et de la famille des Plantaginacées, appartenant à l'ordre des Lamiales (le genre Veronica était autrefois classé dans la famille des Scrofulariacées et dans l'ordre des Scrophulariales).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_germandr%C3%A9e</t>
+          <t>Véronique_germandrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De sainte Véronique à qui est dédié le genre. Teucrium  du nom scientifique de la Germandrée, Teucros le prince de Troie qui découvrit les propriétés médicinales de la germandrée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De sainte Véronique à qui est dédié le genre. Teucrium  du nom scientifique de la Germandrée, Teucros le prince de Troie qui découvrit les propriétés médicinales de la germandrée.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_germandr%C3%A9e</t>
+          <t>Véronique_germandrée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse surtout dans les régions de collines ou montagneuses. Plante vivace d'Europe plutôt méridionale, basophile, préférant les lieux semi-ombragés aux expositions trop ensoleillées. Elle pousse notamment à la lisière des bois (d'autres sous-espèces, en particulier dentata et dubia, préfèrent les prairies). Floraison de mai à juillet.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_germandr%C3%A9e</t>
+          <t>Véronique_germandrée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie générale et végétative
-Plante herbacée, elle forme de nombreuses touffes qui portent des épis floraux denses, aux fleurs d'un bleu profond. Les tiges sont érigées et pubescentes d'une hauteur de 10 à 40 cm. Feuilles simples et opposées, sessiles, ovales ou oblongues, souvent à base cordiforme ou tronquée, à marge profondément dentée.
-Morphologie florale
-Fleurs hermaphrodites groupées en épis érigés souvent très denses, à long pédoncule. Le calice est normalement formé de 5 sépales dont le supérieur est beaucoup plus court que les autres. Corolle à 4 pétales bleus assez grands pour une véronique (1 à 1,5 cm de diamètre). 2 étamines. Ovaire à 2 carpelles soudés. Style filiforme terminé par un stigmate arrondi.
-Fruit et graines
-Le fruit est une petite capsule (0,5 cm environ) elliptique ou en forme de cœur, beaucoup plus large qu'épaisse, dans laquelle les graines sont fortement comprimées.
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée, elle forme de nombreuses touffes qui portent des épis floraux denses, aux fleurs d'un bleu profond. Les tiges sont érigées et pubescentes d'une hauteur de 10 à 40 cm. Feuilles simples et opposées, sessiles, ovales ou oblongues, souvent à base cordiforme ou tronquée, à marge profondément dentée.
 </t>
         </is>
       </c>
@@ -592,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_germandr%C3%A9e</t>
+          <t>Véronique_germandrée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +624,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs hermaphrodites groupées en épis érigés souvent très denses, à long pédoncule. Le calice est normalement formé de 5 sépales dont le supérieur est beaucoup plus court que les autres. Corolle à 4 pétales bleus assez grands pour une véronique (1 à 1,5 cm de diamètre). 2 étamines. Ovaire à 2 carpelles soudés. Style filiforme terminé par un stigmate arrondi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Véronique_germandrée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_germandr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une petite capsule (0,5 cm environ) elliptique ou en forme de cœur, beaucoup plus large qu'épaisse, dans laquelle les graines sont fortement comprimées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Véronique_germandrée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_germandr%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>D'autres sous-espèces de Veronica austriaca</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Veronica austriaca L. subsp. austriaca
 Veronica austriaca L. subsp. dentata (F.W.Schmidt) Watzl
@@ -619,31 +712,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>V%C3%A9ronique_germandr%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Véronique_germandrée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_germandr%C3%A9e</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Veronica teucrium L.</t>
         </is>
